--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H2">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.698128879432663</v>
+        <v>0.7894570000000001</v>
       </c>
       <c r="N2">
-        <v>0.698128879432663</v>
+        <v>2.368371</v>
       </c>
       <c r="O2">
-        <v>0.09076630456100006</v>
+        <v>0.09838606084581891</v>
       </c>
       <c r="P2">
-        <v>0.09076630456100006</v>
+        <v>0.09838606084581894</v>
       </c>
       <c r="Q2">
-        <v>0.4770778658091948</v>
+        <v>0.5898183243830001</v>
       </c>
       <c r="R2">
-        <v>0.4770778658091948</v>
+        <v>5.308364919447</v>
       </c>
       <c r="S2">
-        <v>0.002594852413784943</v>
+        <v>0.003046971887586011</v>
       </c>
       <c r="T2">
-        <v>0.002594852413784943</v>
+        <v>0.003046971887586012</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H3">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.50035643727944</v>
+        <v>5.625751333333334</v>
       </c>
       <c r="N3">
-        <v>5.50035643727944</v>
+        <v>16.877254</v>
       </c>
       <c r="O3">
-        <v>0.7151215803962698</v>
+        <v>0.7011091332204036</v>
       </c>
       <c r="P3">
-        <v>0.7151215803962698</v>
+        <v>0.7011091332204038</v>
       </c>
       <c r="Q3">
-        <v>3.758759145474149</v>
+        <v>4.203105710408667</v>
       </c>
       <c r="R3">
-        <v>3.758759145474149</v>
+        <v>37.827951393678</v>
       </c>
       <c r="S3">
-        <v>0.02044409506386671</v>
+        <v>0.02171303333711169</v>
       </c>
       <c r="T3">
-        <v>0.02044409506386671</v>
+        <v>0.02171303333711169</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H4">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I4">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J4">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.49301300757498</v>
+        <v>1.608865333333333</v>
       </c>
       <c r="N4">
-        <v>1.49301300757498</v>
+        <v>4.826596</v>
       </c>
       <c r="O4">
-        <v>0.1941121150427301</v>
+        <v>0.2005048059337773</v>
       </c>
       <c r="P4">
-        <v>0.1941121150427301</v>
+        <v>0.2005048059337774</v>
       </c>
       <c r="Q4">
-        <v>1.020275024087355</v>
+        <v>1.202013858974667</v>
       </c>
       <c r="R4">
-        <v>1.020275024087355</v>
+        <v>10.818124730772</v>
       </c>
       <c r="S4">
-        <v>0.005549331249076237</v>
+        <v>0.006209543321014777</v>
       </c>
       <c r="T4">
-        <v>0.005549331249076237</v>
+        <v>0.006209543321014779</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H5">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.698128879432663</v>
+        <v>0.7894570000000001</v>
       </c>
       <c r="N5">
-        <v>0.698128879432663</v>
+        <v>2.368371</v>
       </c>
       <c r="O5">
-        <v>0.09076630456100006</v>
+        <v>0.09838606084581891</v>
       </c>
       <c r="P5">
-        <v>0.09076630456100006</v>
+        <v>0.09838606084581894</v>
       </c>
       <c r="Q5">
-        <v>13.67792375001183</v>
+        <v>15.58876976089634</v>
       </c>
       <c r="R5">
-        <v>13.67792375001183</v>
+        <v>140.298927848067</v>
       </c>
       <c r="S5">
-        <v>0.07439496988208534</v>
+        <v>0.08053080289289</v>
       </c>
       <c r="T5">
-        <v>0.07439496988208534</v>
+        <v>0.08053080289289002</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H6">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J6">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.50035643727944</v>
+        <v>5.625751333333334</v>
       </c>
       <c r="N6">
-        <v>5.50035643727944</v>
+        <v>16.877254</v>
       </c>
       <c r="O6">
-        <v>0.7151215803962698</v>
+        <v>0.7011091332204036</v>
       </c>
       <c r="P6">
-        <v>0.7151215803962698</v>
+        <v>0.7011091332204038</v>
       </c>
       <c r="Q6">
-        <v>107.764423107856</v>
+        <v>111.0871678475065</v>
       </c>
       <c r="R6">
-        <v>107.764423107856</v>
+        <v>999.7845106275581</v>
       </c>
       <c r="S6">
-        <v>0.5861365480606892</v>
+        <v>0.5738707386837785</v>
       </c>
       <c r="T6">
-        <v>0.5861365480606892</v>
+        <v>0.5738707386837787</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H7">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J7">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.49301300757498</v>
+        <v>1.608865333333333</v>
       </c>
       <c r="N7">
-        <v>1.49301300757498</v>
+        <v>4.826596</v>
       </c>
       <c r="O7">
-        <v>0.1941121150427301</v>
+        <v>0.2005048059337773</v>
       </c>
       <c r="P7">
-        <v>0.1941121150427301</v>
+        <v>0.2005048059337774</v>
       </c>
       <c r="Q7">
-        <v>29.25150165966759</v>
+        <v>31.76896431043245</v>
       </c>
       <c r="R7">
-        <v>29.25150165966759</v>
+        <v>285.920678793892</v>
       </c>
       <c r="S7">
-        <v>0.1591005056578749</v>
+        <v>0.1641168765871611</v>
       </c>
       <c r="T7">
-        <v>0.1591005056578749</v>
+        <v>0.1641168765871611</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H8">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I8">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J8">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.698128879432663</v>
+        <v>0.7894570000000001</v>
       </c>
       <c r="N8">
-        <v>0.698128879432663</v>
+        <v>2.368371</v>
       </c>
       <c r="O8">
-        <v>0.09076630456100006</v>
+        <v>0.09838606084581891</v>
       </c>
       <c r="P8">
-        <v>0.09076630456100006</v>
+        <v>0.09838606084581894</v>
       </c>
       <c r="Q8">
-        <v>2.532881917480433</v>
+        <v>2.866517577543</v>
       </c>
       <c r="R8">
-        <v>2.532881917480433</v>
+        <v>25.798658197887</v>
       </c>
       <c r="S8">
-        <v>0.01377648226512978</v>
+        <v>0.01480828606534289</v>
       </c>
       <c r="T8">
-        <v>0.01377648226512978</v>
+        <v>0.0148082860653429</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H9">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I9">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J9">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.50035643727944</v>
+        <v>5.625751333333334</v>
       </c>
       <c r="N9">
-        <v>5.50035643727944</v>
+        <v>16.877254</v>
       </c>
       <c r="O9">
-        <v>0.7151215803962698</v>
+        <v>0.7011091332204036</v>
       </c>
       <c r="P9">
-        <v>0.7151215803962698</v>
+        <v>0.7011091332204038</v>
       </c>
       <c r="Q9">
-        <v>19.95584736589594</v>
+        <v>20.427097465582</v>
       </c>
       <c r="R9">
-        <v>19.95584736589594</v>
+        <v>183.843877190238</v>
       </c>
       <c r="S9">
-        <v>0.1085409372717139</v>
+        <v>0.1055253611995133</v>
       </c>
       <c r="T9">
-        <v>0.1085409372717139</v>
+        <v>0.1055253611995134</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H10">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I10">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J10">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.49301300757498</v>
+        <v>1.608865333333333</v>
       </c>
       <c r="N10">
-        <v>1.49301300757498</v>
+        <v>4.826596</v>
       </c>
       <c r="O10">
-        <v>0.1941121150427301</v>
+        <v>0.2005048059337773</v>
       </c>
       <c r="P10">
-        <v>0.1941121150427301</v>
+        <v>0.2005048059337774</v>
       </c>
       <c r="Q10">
-        <v>5.416801626259747</v>
+        <v>5.841788416468</v>
       </c>
       <c r="R10">
-        <v>5.416801626259747</v>
+        <v>52.576095748212</v>
       </c>
       <c r="S10">
-        <v>0.02946227813577892</v>
+        <v>0.03017838602560145</v>
       </c>
       <c r="T10">
-        <v>0.02946227813577892</v>
+        <v>0.03017838602560146</v>
       </c>
     </row>
   </sheetData>
